--- a/tests/5/case_5_weights.xlsx
+++ b/tests/5/case_5_weights.xlsx
@@ -1593,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="12">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="C12" t="s" s="13">
         <v>20</v>
@@ -1606,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="12">
-        <v>400</v>
+        <v>0.3</v>
       </c>
       <c r="C13" t="s" s="13">
         <v>20</v>
@@ -1619,7 +1619,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="12">
-        <v>300</v>
+        <v>0.2</v>
       </c>
       <c r="C14" t="s" s="13">
         <v>20</v>
@@ -1632,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="12">
-        <v>300</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="9"/>
@@ -1643,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="12">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
